--- a/group2 project/results/res_load/p_mw.xlsx
+++ b/group2 project/results/res_load/p_mw.xlsx
@@ -391,16 +391,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41.85312697102461</v>
+        <v>42.70727241941287</v>
       </c>
       <c r="C2">
-        <v>41.85312697102461</v>
+        <v>42.70727241941287</v>
       </c>
       <c r="D2">
-        <v>114.144891739158</v>
+        <v>116.4743793256715</v>
       </c>
       <c r="E2">
-        <v>41.85312697102461</v>
+        <v>42.70727241941287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,16 +408,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.98557897855949</v>
+        <v>39.78120303934642</v>
       </c>
       <c r="C3">
-        <v>38.98557897855949</v>
+        <v>39.78120303934642</v>
       </c>
       <c r="D3">
-        <v>106.3243063051622</v>
+        <v>108.4941901073084</v>
       </c>
       <c r="E3">
-        <v>38.98557897855949</v>
+        <v>39.78120303934642</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,16 +425,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.68353207611065</v>
+        <v>37.43217558786801</v>
       </c>
       <c r="C4">
-        <v>36.68353207611065</v>
+        <v>37.43217558786801</v>
       </c>
       <c r="D4">
-        <v>100.0459965712109</v>
+        <v>102.0877516032764</v>
       </c>
       <c r="E4">
-        <v>36.68353207611065</v>
+        <v>37.43217558786801</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,16 +442,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.4573860774229</v>
+        <v>36.18100620145194</v>
       </c>
       <c r="C5">
-        <v>35.4573860774229</v>
+        <v>36.18100620145194</v>
       </c>
       <c r="D5">
-        <v>96.70196202933519</v>
+        <v>98.6754714585053</v>
       </c>
       <c r="E5">
-        <v>35.4573860774229</v>
+        <v>36.18100620145194</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,16 +459,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="C6">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="D6">
-        <v>95.24026922344274</v>
+        <v>97.18394818718647</v>
       </c>
       <c r="E6">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,16 +476,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="C7">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="D7">
-        <v>95.24026922344274</v>
+        <v>97.18394818718647</v>
       </c>
       <c r="E7">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -493,16 +493,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.05410862065316</v>
+        <v>35.76949859250323</v>
       </c>
       <c r="C8">
-        <v>35.05410862065316</v>
+        <v>35.76949859250323</v>
       </c>
       <c r="D8">
-        <v>95.60211441996316</v>
+        <v>97.55317797955425</v>
       </c>
       <c r="E8">
-        <v>35.05410862065316</v>
+        <v>35.76949859250323</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,16 +510,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.96268905962283</v>
+        <v>37.71702965267636</v>
       </c>
       <c r="C9">
-        <v>36.96268905962283</v>
+        <v>37.71702965267636</v>
       </c>
       <c r="D9">
-        <v>100.8073337989714</v>
+        <v>102.864626325481</v>
       </c>
       <c r="E9">
-        <v>36.96268905962283</v>
+        <v>37.71702965267636</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,16 +527,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41.64230469659449</v>
+        <v>42.49214764958622</v>
       </c>
       <c r="C10">
-        <v>41.64230469659449</v>
+        <v>42.49214764958622</v>
       </c>
       <c r="D10">
-        <v>113.5699218998031</v>
+        <v>115.8876754079624</v>
       </c>
       <c r="E10">
-        <v>41.64230469659449</v>
+        <v>42.49214764958622</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -544,16 +544,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46.06626410142444</v>
+        <v>47.00639194022902</v>
       </c>
       <c r="C11">
-        <v>46.06626410142444</v>
+        <v>47.00639194022902</v>
       </c>
       <c r="D11">
-        <v>125.6352657311575</v>
+        <v>128.1992507460791</v>
       </c>
       <c r="E11">
-        <v>46.06626410142444</v>
+        <v>47.00639194022902</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,16 +561,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48.15292547674984</v>
+        <v>49.13563824158147</v>
       </c>
       <c r="C12">
-        <v>48.15292547674984</v>
+        <v>49.13563824158147</v>
       </c>
       <c r="D12">
-        <v>131.3261603911359</v>
+        <v>134.006286113404</v>
       </c>
       <c r="E12">
-        <v>48.15292547674984</v>
+        <v>49.13563824158147</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,16 +578,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49.76455224670349</v>
+        <v>50.78015535377907</v>
       </c>
       <c r="C13">
-        <v>49.76455224670349</v>
+        <v>50.78015535377907</v>
       </c>
       <c r="D13">
-        <v>135.7215061273732</v>
+        <v>138.4913327830338</v>
       </c>
       <c r="E13">
-        <v>49.76455224670349</v>
+        <v>50.78015535377907</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -595,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>50.04610493787965</v>
+        <v>51.06745401824455</v>
       </c>
       <c r="C14">
-        <v>50.04610493787965</v>
+        <v>51.06745401824455</v>
       </c>
       <c r="D14">
-        <v>136.4893771033082</v>
+        <v>139.2748745952124</v>
       </c>
       <c r="E14">
-        <v>50.04610493787965</v>
+        <v>51.06745401824455</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,16 +612,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>49.64020361081128</v>
+        <v>50.65326899062375</v>
       </c>
       <c r="C15">
-        <v>49.64020361081128</v>
+        <v>50.65326899062375</v>
       </c>
       <c r="D15">
-        <v>135.3823734840308</v>
+        <v>138.1452790653375</v>
       </c>
       <c r="E15">
-        <v>49.64020361081128</v>
+        <v>50.65326899062375</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,16 +629,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>49.64408237560057</v>
+        <v>50.65722691387813</v>
       </c>
       <c r="C16">
-        <v>49.64408237560057</v>
+        <v>50.65722691387813</v>
       </c>
       <c r="D16">
-        <v>135.3929519334561</v>
+        <v>138.1560734014858</v>
       </c>
       <c r="E16">
-        <v>49.64408237560057</v>
+        <v>50.65722691387813</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,16 +646,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49.66883802146167</v>
+        <v>50.68248777700171</v>
       </c>
       <c r="C17">
-        <v>49.66883802146167</v>
+        <v>50.68248777700171</v>
       </c>
       <c r="D17">
-        <v>135.4604673312591</v>
+        <v>138.2249666645501</v>
       </c>
       <c r="E17">
-        <v>49.66883802146167</v>
+        <v>50.68248777700171</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,16 +663,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48.35040023705209</v>
+        <v>49.33714309903274</v>
       </c>
       <c r="C18">
-        <v>48.35040023705209</v>
+        <v>49.33714309903274</v>
       </c>
       <c r="D18">
-        <v>131.864727919233</v>
+        <v>134.5558448155438</v>
       </c>
       <c r="E18">
-        <v>48.35040023705209</v>
+        <v>49.33714309903274</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,16 +680,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>47.53163862255805</v>
+        <v>48.50167206383475</v>
       </c>
       <c r="C19">
-        <v>47.53163862255805</v>
+        <v>48.50167206383475</v>
       </c>
       <c r="D19">
-        <v>129.6317416978856</v>
+        <v>132.277287446822</v>
       </c>
       <c r="E19">
-        <v>47.53163862255805</v>
+        <v>48.50167206383475</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,16 +697,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>47.53768493237666</v>
+        <v>48.50784176773129</v>
       </c>
       <c r="C20">
-        <v>47.53768493237666</v>
+        <v>48.50784176773129</v>
       </c>
       <c r="D20">
-        <v>129.6482316337545</v>
+        <v>132.2941139119944</v>
       </c>
       <c r="E20">
-        <v>47.53768493237666</v>
+        <v>48.50784176773129</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,16 +714,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>49.67123372912566</v>
+        <v>50.68493237665884</v>
       </c>
       <c r="C21">
-        <v>49.67123372912566</v>
+        <v>50.68493237665884</v>
       </c>
       <c r="D21">
-        <v>135.4670010794336</v>
+        <v>138.2316337545241</v>
       </c>
       <c r="E21">
-        <v>49.67123372912566</v>
+        <v>50.68493237665884</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -731,16 +731,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>51.73679006074459</v>
+        <v>52.79264291912713</v>
       </c>
       <c r="C22">
-        <v>51.73679006074459</v>
+        <v>52.79264291912713</v>
       </c>
       <c r="D22">
-        <v>141.1003365293034</v>
+        <v>143.9799352339831</v>
       </c>
       <c r="E22">
-        <v>51.73679006074459</v>
+        <v>52.79264291912713</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -748,16 +748,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>53.31430651681588</v>
+        <v>54.40235358858764</v>
       </c>
       <c r="C23">
-        <v>53.31430651681588</v>
+        <v>54.40235358858764</v>
       </c>
       <c r="D23">
-        <v>145.4026541367706</v>
+        <v>148.3700552416026</v>
       </c>
       <c r="E23">
-        <v>53.31430651681588</v>
+        <v>54.40235358858764</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -765,16 +765,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>53.9</v>
+        <v>55</v>
       </c>
       <c r="C24">
-        <v>53.9</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E24">
-        <v>53.9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -782,16 +782,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>50.83018583190467</v>
+        <v>51.86753656316803</v>
       </c>
       <c r="C25">
-        <v>50.83018583190467</v>
+        <v>51.86753656316803</v>
       </c>
       <c r="D25">
-        <v>138.6277795415582</v>
+        <v>141.4569178995492</v>
       </c>
       <c r="E25">
-        <v>50.83018583190467</v>
+        <v>51.86753656316803</v>
       </c>
     </row>
   </sheetData>
